--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Icam4</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Icam4</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H2">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I2">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J2">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>5.821155047405751</v>
+        <v>8.92297029019875</v>
       </c>
       <c r="R2">
-        <v>23.284620189623</v>
+        <v>35.691881160795</v>
       </c>
       <c r="S2">
-        <v>0.1499428905220957</v>
+        <v>0.03187846929377049</v>
       </c>
       <c r="T2">
-        <v>0.09111439364561093</v>
+        <v>0.01661598851405706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H3">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I3">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J3">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>1.3918041555005</v>
+        <v>1.3704507220775</v>
       </c>
       <c r="R3">
-        <v>8.350824933002999</v>
+        <v>8.222704332465</v>
       </c>
       <c r="S3">
-        <v>0.03585046892187047</v>
+        <v>0.004896113047732681</v>
       </c>
       <c r="T3">
-        <v>0.03267737863082305</v>
+        <v>0.003827995507639485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H4">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I4">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J4">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>0.262465697706</v>
+        <v>0.5784458326166666</v>
       </c>
       <c r="R4">
-        <v>1.574794186236</v>
+        <v>3.4706749957</v>
       </c>
       <c r="S4">
-        <v>0.006760662627338033</v>
+        <v>0.002066572801820814</v>
       </c>
       <c r="T4">
-        <v>0.006162282924394551</v>
+        <v>0.001615737080507855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H5">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I5">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J5">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>0.6415300334825</v>
+        <v>0.8460996493737499</v>
       </c>
       <c r="R5">
-        <v>2.56612013393</v>
+        <v>3.384398597495</v>
       </c>
       <c r="S5">
-        <v>0.01652470459792547</v>
+        <v>0.003022800795566729</v>
       </c>
       <c r="T5">
-        <v>0.01004141266298282</v>
+        <v>0.001575571989877015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H6">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I6">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J6">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>4.196656803305667</v>
+        <v>15.60571498528917</v>
       </c>
       <c r="R6">
-        <v>25.179940819834</v>
+        <v>93.63428991173501</v>
       </c>
       <c r="S6">
-        <v>0.1080986241548925</v>
+        <v>0.05575344193539769</v>
       </c>
       <c r="T6">
-        <v>0.09853091960048366</v>
+        <v>0.04359048150715694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0486715</v>
+        <v>1.0325825</v>
       </c>
       <c r="H7">
-        <v>2.097343</v>
+        <v>2.065165</v>
       </c>
       <c r="I7">
-        <v>0.3268211625388631</v>
+        <v>0.0982122658318007</v>
       </c>
       <c r="J7">
-        <v>0.2473166347420568</v>
+        <v>0.06769086840871449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>0.37439669893</v>
+        <v>0.1665070258725</v>
       </c>
       <c r="R7">
-        <v>2.24638019358</v>
+        <v>0.9990421552350001</v>
       </c>
       <c r="S7">
-        <v>0.009643811714740954</v>
+        <v>0.0005948679575123084</v>
       </c>
       <c r="T7">
-        <v>0.008790247277761834</v>
+        <v>0.000465093809476133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.534717</v>
       </c>
       <c r="I8">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J8">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>0.9894012133395002</v>
+        <v>1.5402365443485</v>
       </c>
       <c r="R8">
-        <v>5.936407280037001</v>
+        <v>9.241419266091</v>
       </c>
       <c r="S8">
-        <v>0.0254852647981449</v>
+        <v>0.005502694930867373</v>
       </c>
       <c r="T8">
-        <v>0.02322958868768729</v>
+        <v>0.00430224777694327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.534717</v>
       </c>
       <c r="I9">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J9">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>0.236560048473</v>
@@ -1013,10 +1013,10 @@
         <v>2.129040436257</v>
       </c>
       <c r="S9">
-        <v>0.006093377888276043</v>
+        <v>0.0008451414715190559</v>
       </c>
       <c r="T9">
-        <v>0.00833108836720451</v>
+        <v>0.0009911528976418171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.534717</v>
       </c>
       <c r="I10">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J10">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>0.04461036987600001</v>
+        <v>0.09984829954</v>
       </c>
       <c r="R10">
-        <v>0.401493328884</v>
+        <v>0.89863469586</v>
       </c>
       <c r="S10">
-        <v>0.00114908600647019</v>
+        <v>0.0003567210074001255</v>
       </c>
       <c r="T10">
-        <v>0.001571072275008657</v>
+        <v>0.0004183501485246549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.534717</v>
       </c>
       <c r="I11">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J11">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>0.109038599445</v>
+        <v>0.1460493039585</v>
       </c>
       <c r="R11">
-        <v>0.6542315966700001</v>
+        <v>0.876295823751</v>
       </c>
       <c r="S11">
-        <v>0.002808645817903546</v>
+        <v>0.0005217800911801412</v>
       </c>
       <c r="T11">
-        <v>0.002560055296111406</v>
+        <v>0.0004079505161626641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>0.534717</v>
       </c>
       <c r="I12">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J12">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>0.7132909704940001</v>
+        <v>2.693777042767</v>
       </c>
       <c r="R12">
-        <v>6.419618734446001</v>
+        <v>24.243993384903</v>
       </c>
       <c r="S12">
-        <v>0.01837314227643631</v>
+        <v>0.009623868056182776</v>
       </c>
       <c r="T12">
-        <v>0.02512042986579296</v>
+        <v>0.01128654199546401</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>0.534717</v>
       </c>
       <c r="I13">
-        <v>0.05554864148569349</v>
+        <v>0.01695288855814846</v>
       </c>
       <c r="J13">
-        <v>0.06305330552960026</v>
+        <v>0.01752666643241707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>0.06363488778000001</v>
+        <v>0.028741573467</v>
       </c>
       <c r="R13">
-        <v>0.5727139900200001</v>
+        <v>0.258674161203</v>
       </c>
       <c r="S13">
-        <v>0.001639124698462496</v>
+        <v>0.0001026830009989869</v>
       </c>
       <c r="T13">
-        <v>0.002241071037795427</v>
+        <v>0.0001204230976806451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H14">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I14">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J14">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>1.671474241623333</v>
+        <v>6.6381047571305</v>
       </c>
       <c r="R14">
-        <v>10.02884544974</v>
+        <v>39.828628542783</v>
       </c>
       <c r="S14">
-        <v>0.04305428685221568</v>
+        <v>0.02371549067034975</v>
       </c>
       <c r="T14">
-        <v>0.03924359361145324</v>
+        <v>0.01854180874961724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H15">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I15">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J15">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.3996397237933333</v>
+        <v>1.019525467615666</v>
       </c>
       <c r="R15">
-        <v>3.59675751414</v>
+        <v>9.175729208540998</v>
       </c>
       <c r="S15">
-        <v>0.01029402839557239</v>
+        <v>0.003642387036669052</v>
       </c>
       <c r="T15">
-        <v>0.01407437086464527</v>
+        <v>0.004271666445664562</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H16">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I16">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J16">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.07536384952</v>
+        <v>0.4303257669088889</v>
       </c>
       <c r="R16">
-        <v>0.67827464568</v>
+        <v>3.872931902179999</v>
       </c>
       <c r="S16">
-        <v>0.001941242476085072</v>
+        <v>0.001537394645569048</v>
       </c>
       <c r="T16">
-        <v>0.002654137476284315</v>
+        <v>0.001803003649833811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H17">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I17">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J17">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.1842075872333334</v>
+        <v>0.6294426547271667</v>
       </c>
       <c r="R17">
-        <v>1.1052455234</v>
+        <v>3.776655928363</v>
       </c>
       <c r="S17">
-        <v>0.004744868992654038</v>
+        <v>0.002248765566657784</v>
       </c>
       <c r="T17">
-        <v>0.004324905232467414</v>
+        <v>0.001758183359529805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H18">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I18">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J18">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>1.205019225657778</v>
+        <v>11.60962857805989</v>
       </c>
       <c r="R18">
-        <v>10.84517303092</v>
+        <v>104.486657202539</v>
       </c>
       <c r="S18">
-        <v>0.03103921203925811</v>
+        <v>0.0414769046742527</v>
       </c>
       <c r="T18">
-        <v>0.04243794215438339</v>
+        <v>0.0486426895833286</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3011133333333333</v>
+        <v>0.7681736666666666</v>
       </c>
       <c r="H19">
-        <v>0.90334</v>
+        <v>2.304521</v>
       </c>
       <c r="I19">
-        <v>0.09384274260905555</v>
+        <v>0.07306348534442113</v>
       </c>
       <c r="J19">
-        <v>0.1065209690679539</v>
+        <v>0.07553635073038674</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.1075034822666667</v>
+        <v>0.123870308271</v>
       </c>
       <c r="R19">
-        <v>0.9675313404000001</v>
+        <v>1.114832774439</v>
       </c>
       <c r="S19">
-        <v>0.002769103853270255</v>
+        <v>0.0004425427509227987</v>
       </c>
       <c r="T19">
-        <v>0.003786019728720279</v>
+        <v>0.0005189989424127116</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H20">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I20">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J20">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>0.5386477192882501</v>
+        <v>70.1626185382905</v>
       </c>
       <c r="R20">
-        <v>2.154590877153</v>
+        <v>420.975711229743</v>
       </c>
       <c r="S20">
-        <v>0.01387463404521562</v>
+        <v>0.2506650597167466</v>
       </c>
       <c r="T20">
-        <v>0.0084310690802528</v>
+        <v>0.1959809165277016</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H21">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I21">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J21">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>0.1287875220555</v>
+        <v>10.776054173829</v>
       </c>
       <c r="R21">
-        <v>0.7727251323329999</v>
+        <v>96.98448756446099</v>
       </c>
       <c r="S21">
-        <v>0.003317343922798591</v>
+        <v>0.03849885194235734</v>
       </c>
       <c r="T21">
-        <v>0.003023729024303475</v>
+        <v>0.04515013159863663</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H22">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I22">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J22">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>0.024286683366</v>
+        <v>4.548404060419999</v>
       </c>
       <c r="R22">
-        <v>0.145720100196</v>
+        <v>40.93563654378</v>
       </c>
       <c r="S22">
-        <v>0.0006255829771646193</v>
+        <v>0.01624976375131809</v>
       </c>
       <c r="T22">
-        <v>0.0005702132335941349</v>
+        <v>0.01905716494915934</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H23">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I23">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J23">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>0.0593625640575</v>
+        <v>6.6530051108205</v>
       </c>
       <c r="R23">
-        <v>0.23745025623</v>
+        <v>39.918030664923</v>
       </c>
       <c r="S23">
-        <v>0.001529077025280648</v>
+        <v>0.02376872411752313</v>
       </c>
       <c r="T23">
-        <v>0.00092915993223</v>
+        <v>0.01858342898890691</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H24">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I24">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J24">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>0.3883283639290001</v>
+        <v>122.710016050691</v>
       </c>
       <c r="R24">
-        <v>2.329970183574</v>
+        <v>1104.390144456219</v>
       </c>
       <c r="S24">
-        <v>0.01000266732032502</v>
+        <v>0.4383974563948599</v>
       </c>
       <c r="T24">
-        <v>0.009117340921167718</v>
+        <v>0.5141374833299377</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0970365</v>
+        <v>8.119346999999999</v>
       </c>
       <c r="H25">
-        <v>0.194073</v>
+        <v>24.358041</v>
       </c>
       <c r="I25">
-        <v>0.03024167409784893</v>
+        <v>0.7722573895496326</v>
       </c>
       <c r="J25">
-        <v>0.02288489829956054</v>
+        <v>0.7983947762164634</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>0.03464397123000001</v>
+        <v>1.309269061791</v>
       </c>
       <c r="R25">
-        <v>0.20786382738</v>
+        <v>11.783421556119</v>
       </c>
       <c r="S25">
-        <v>0.0008923688070644243</v>
+        <v>0.004677533626827579</v>
       </c>
       <c r="T25">
-        <v>0.0008133861080124101</v>
+        <v>0.005485650822121157</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H26">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I26">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J26">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>3.353948676270834</v>
+        <v>3.589999515442</v>
       </c>
       <c r="R26">
-        <v>20.123692057625</v>
+        <v>21.539997092652</v>
       </c>
       <c r="S26">
-        <v>0.08639191965981519</v>
+        <v>0.01282573914242178</v>
       </c>
       <c r="T26">
-        <v>0.07874545450213701</v>
+        <v>0.01002772430715882</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H27">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I27">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J27">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>0.8019095294583333</v>
+        <v>0.5513766456893332</v>
       </c>
       <c r="R27">
-        <v>7.217185765125</v>
+        <v>4.962389811204</v>
       </c>
       <c r="S27">
-        <v>0.02065580315332477</v>
+        <v>0.001969864618760046</v>
       </c>
       <c r="T27">
-        <v>0.02824136702518169</v>
+        <v>0.00231018958439799</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H28">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I28">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J28">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>0.1512236785</v>
+        <v>0.2327274653244444</v>
       </c>
       <c r="R28">
-        <v>1.3610131065</v>
+        <v>2.09454718792</v>
       </c>
       <c r="S28">
-        <v>0.003895260525620147</v>
+        <v>0.0008314490708673073</v>
       </c>
       <c r="T28">
-        <v>0.005325742182290009</v>
+        <v>0.0009750949203220432</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,14 +2202,14 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
         <v>3</v>
       </c>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H29">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I29">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J29">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>0.3696274689583334</v>
+        <v>0.3404132516953333</v>
       </c>
       <c r="R29">
-        <v>2.217764813750001</v>
+        <v>2.042479510172</v>
       </c>
       <c r="S29">
-        <v>0.009520964595622385</v>
+        <v>0.001216170517039852</v>
       </c>
       <c r="T29">
-        <v>0.008678273238206264</v>
+        <v>0.0009508553479801766</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H30">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I30">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J30">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>2.417968842194445</v>
+        <v>6.278683825368445</v>
       </c>
       <c r="R30">
-        <v>21.76171957975</v>
+        <v>56.508154428316</v>
       </c>
       <c r="S30">
-        <v>0.06228269723765164</v>
+        <v>0.02243141274964877</v>
       </c>
       <c r="T30">
-        <v>0.08515517401818716</v>
+        <v>0.02630679063122117</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6042083333333333</v>
+        <v>0.4154413333333333</v>
       </c>
       <c r="H31">
-        <v>1.812625</v>
+        <v>1.246324</v>
       </c>
       <c r="I31">
-        <v>0.1883030767172264</v>
+        <v>0.03951397071599709</v>
       </c>
       <c r="J31">
-        <v>0.2137429667199504</v>
+        <v>0.04085133821201826</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>0.2157144591666667</v>
+        <v>0.066991161324</v>
       </c>
       <c r="R31">
-        <v>1.9414301325</v>
+        <v>0.6029204519160001</v>
       </c>
       <c r="S31">
-        <v>0.005556431545192281</v>
+        <v>0.0002393346172593377</v>
       </c>
       <c r="T31">
-        <v>0.007596955753948232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H32">
-        <v>2.938298</v>
-      </c>
-      <c r="I32">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J32">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.550980500000001</v>
-      </c>
-      <c r="N32">
-        <v>11.101961</v>
-      </c>
-      <c r="O32">
-        <v>0.4587918645086687</v>
-      </c>
-      <c r="P32">
-        <v>0.3684119094562331</v>
-      </c>
-      <c r="Q32">
-        <v>5.436811633729667</v>
-      </c>
-      <c r="R32">
-        <v>32.620869802378</v>
-      </c>
-      <c r="S32">
-        <v>0.1400428686311817</v>
-      </c>
-      <c r="T32">
-        <v>0.1276478099290919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H33">
-        <v>2.938298</v>
-      </c>
-      <c r="I33">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J33">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.327207</v>
-      </c>
-      <c r="N33">
-        <v>3.981621</v>
-      </c>
-      <c r="O33">
-        <v>0.1096944538210784</v>
-      </c>
-      <c r="P33">
-        <v>0.1321277020646205</v>
-      </c>
-      <c r="Q33">
-        <v>1.299909891228667</v>
-      </c>
-      <c r="R33">
-        <v>11.699189021058</v>
-      </c>
-      <c r="S33">
-        <v>0.03348343153923612</v>
-      </c>
-      <c r="T33">
-        <v>0.04577976815246249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H34">
-        <v>2.938298</v>
-      </c>
-      <c r="I34">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J34">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.250284</v>
-      </c>
-      <c r="N34">
-        <v>0.750852</v>
-      </c>
-      <c r="O34">
-        <v>0.02068612257180288</v>
-      </c>
-      <c r="P34">
-        <v>0.02491657276034671</v>
-      </c>
-      <c r="Q34">
-        <v>0.245136325544</v>
-      </c>
-      <c r="R34">
-        <v>2.206226929896</v>
-      </c>
-      <c r="S34">
-        <v>0.00631428795912482</v>
-      </c>
-      <c r="T34">
-        <v>0.008633124668775046</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H35">
-        <v>2.938298</v>
-      </c>
-      <c r="I35">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J35">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.611755</v>
-      </c>
-      <c r="N35">
-        <v>1.22351</v>
-      </c>
-      <c r="O35">
-        <v>0.05056191731758031</v>
-      </c>
-      <c r="P35">
-        <v>0.04060144467619692</v>
-      </c>
-      <c r="Q35">
-        <v>0.5991728309966667</v>
-      </c>
-      <c r="R35">
-        <v>3.59503698598</v>
-      </c>
-      <c r="S35">
-        <v>0.01543365628819423</v>
-      </c>
-      <c r="T35">
-        <v>0.01406763831419901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H36">
-        <v>2.938298</v>
-      </c>
-      <c r="I36">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J36">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.001879333333334</v>
-      </c>
-      <c r="N36">
-        <v>12.005638</v>
-      </c>
-      <c r="O36">
-        <v>0.3307577248521605</v>
-      </c>
-      <c r="P36">
-        <v>0.3983998880756573</v>
-      </c>
-      <c r="Q36">
-        <v>3.91957134712489</v>
-      </c>
-      <c r="R36">
-        <v>35.27614212412401</v>
-      </c>
-      <c r="S36">
-        <v>0.1009613818235969</v>
-      </c>
-      <c r="T36">
-        <v>0.1380380815156424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.9794326666666667</v>
-      </c>
-      <c r="H37">
-        <v>2.938298</v>
-      </c>
-      <c r="I37">
-        <v>0.3052427025513126</v>
-      </c>
-      <c r="J37">
-        <v>0.3464812256408781</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N37">
-        <v>1.07106</v>
-      </c>
-      <c r="O37">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P37">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q37">
-        <v>0.3496770506533334</v>
-      </c>
-      <c r="R37">
-        <v>3.14709345588</v>
-      </c>
-      <c r="S37">
-        <v>0.009007076309978837</v>
-      </c>
-      <c r="T37">
-        <v>0.01231480306070731</v>
+        <v>0.0002806834209380519</v>
       </c>
     </row>
   </sheetData>
